--- a/client/public/1.1.3.xlsx
+++ b/client/public/1.1.3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
@@ -42,8 +42,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,30 +116,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -218,6 +229,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -252,6 +264,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -427,182 +440,188 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="48.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.5703125" customWidth="1"/>
+    <col min="1" max="3" width="18.7109375" style="1"/>
+    <col min="4" max="4" width="48.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" style="1"/>
+    <col min="6" max="6" width="31.5703125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="18.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="37.5" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
   </sheetData>
+  <sheetProtection password="CC8C" sheet="1" objects="1" scenarios="1" insertRows="0"/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
